--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T10:46:53+00:00</t>
+    <t>2023-02-02T13:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HIV Organization for case report - this represents a health facility</t>
+    <t>Organization providing HIV Testing Services</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:01:09+00:00</t>
+    <t>2023-02-02T13:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:08:56+00:00</t>
+    <t>2023-02-02T13:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:10:09+00:00</t>
+    <t>2023-02-03T13:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T13:32:48+00:00</t>
+    <t>2023-02-03T13:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T13:32:57+00:00</t>
+    <t>2023-02-06T10:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:42+00:00</t>
+    <t>2023-02-06T10:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
